--- a/bug_board/rsc/DB설계서.xlsx
+++ b/bug_board/rsc/DB설계서.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\PYTOOL\bug_board\rsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APP\PYTOOL\bug_board\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="11208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11205"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE정보" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="222">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -787,66 +787,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>varchar(128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prj_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREE_BOARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frb_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prj_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>developer_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tem_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tem_uid</t>
+  </si>
+  <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(128)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rn </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prj_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREE_BOARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frb_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prj_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_explain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>developer_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug_num</t>
+    <t>rn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -944,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,13 +1007,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,56 +1302,56 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G70"/>
+  <dimension ref="B2:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B17"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="29" customWidth="1" outlineLevel="2"/>
     <col min="6" max="6" width="28.5" customWidth="1" outlineLevel="2"/>
-    <col min="7" max="7" width="7.59765625" style="5" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="7.625" style="5" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="15" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1353,8 +1370,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="15"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>185</v>
       </c>
@@ -1371,8 +1388,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="15"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>202</v>
       </c>
@@ -1385,8 +1402,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="15"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>192</v>
       </c>
@@ -1399,54 +1416,54 @@
       <c r="F7" s="4"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="15"/>
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="16"/>
+      <c r="C9" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="15"/>
-      <c r="C9" s="3" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="16"/>
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="15"/>
-      <c r="C10" s="3" t="s">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="16"/>
+      <c r="C11" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="15"/>
-      <c r="C11" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>197</v>
@@ -1457,13 +1474,13 @@
       <c r="F11" s="4"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="15"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
       <c r="C12" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1471,13 +1488,13 @@
       <c r="F12" s="4"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="15"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1485,42 +1502,40 @@
       <c r="F13" s="4"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="15"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
       <c r="C14" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>177</v>
+        <v>198</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="15"/>
-      <c r="C15" s="2" t="s">
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="15"/>
-      <c r="C16" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -1529,116 +1544,116 @@
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="15"/>
-      <c r="C17" s="2" t="s">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="16"/>
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="15" t="s">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="15"/>
-      <c r="C19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="15"/>
-      <c r="C20" s="3" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="16"/>
+      <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="15"/>
-      <c r="C21" s="3" t="s">
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="15"/>
-      <c r="C22" s="2" t="s">
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="15"/>
-      <c r="C23" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -1647,116 +1662,116 @@
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="15"/>
-      <c r="C24" s="2" t="s">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="15"/>
-      <c r="C26" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="15"/>
-      <c r="C27" s="3" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="16"/>
+      <c r="C27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="16"/>
+      <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="15"/>
-      <c r="C28" s="3" t="s">
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="16"/>
+      <c r="C29" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="15"/>
-      <c r="C29" s="2" t="s">
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="16"/>
+      <c r="C30" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="15"/>
-      <c r="C30" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -1765,94 +1780,98 @@
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="16"/>
+      <c r="C31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="15"/>
-      <c r="C31" s="2" t="s">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
+      <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="15"/>
-      <c r="C33" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="15"/>
-      <c r="C34" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="15"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
       <c r="C35" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="15"/>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
       <c r="C36" s="3" t="s">
         <v>179</v>
       </c>
@@ -1867,8 +1886,8 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="15"/>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
       <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1883,8 +1902,8 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="15"/>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
       <c r="C38" s="2" t="s">
         <v>180</v>
       </c>
@@ -1899,8 +1918,8 @@
       </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="15"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1915,9 +1934,9 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="15" t="s">
-        <v>184</v>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1</v>
@@ -1935,10 +1954,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="15"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
       <c r="C41" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
@@ -1953,70 +1972,70 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="15"/>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="16"/>
       <c r="C42" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="15"/>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
       <c r="C43" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="15"/>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="16"/>
       <c r="C44" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>207</v>
+        <v>179</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F44" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="15"/>
-      <c r="C45" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="15"/>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="16"/>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="16"/>
       <c r="C46" s="2" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -2025,114 +2044,112 @@
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="15"/>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
       <c r="C47" s="2" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="15"/>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="C48" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="15" t="s">
-        <v>211</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="16"/>
       <c r="C49" s="2" t="s">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="15"/>
-      <c r="C50" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="15"/>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="16"/>
+      <c r="C50" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="16"/>
       <c r="C51" s="3" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>186</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="4"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="15"/>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="16"/>
       <c r="C52" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="15"/>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="16"/>
       <c r="C53" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>177</v>
@@ -2140,29 +2157,31 @@
       <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="15"/>
-      <c r="C54" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="15"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="16"/>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="16"/>
       <c r="C55" s="2" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
@@ -2171,259 +2190,390 @@
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="15"/>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="16"/>
       <c r="C56" s="2" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="15"/>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="16" t="s">
+        <v>209</v>
+      </c>
       <c r="C57" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B58" s="15" t="s">
-        <v>181</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="16"/>
       <c r="C58" s="2" t="s">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="15"/>
-      <c r="C59" s="2" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="16"/>
+      <c r="C59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="16"/>
+      <c r="C60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="16"/>
+      <c r="C61" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="16"/>
+      <c r="C62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="16"/>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="16"/>
+      <c r="C64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="16"/>
+      <c r="C65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="16"/>
+      <c r="C67" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G67" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="15"/>
-      <c r="C60" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D60" s="1" t="s">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="16"/>
+      <c r="C68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="15"/>
-      <c r="C61" s="3" t="s">
+      <c r="E68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="16"/>
+      <c r="C69" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="E69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B62" s="15"/>
-      <c r="C62" s="3" t="s">
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="16"/>
+      <c r="C70" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="16"/>
+      <c r="C71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="16"/>
+      <c r="C72" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="16"/>
+      <c r="C73" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="16"/>
+      <c r="C74" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="15"/>
-      <c r="C63" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B64" s="15"/>
-      <c r="C64" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="F74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="16"/>
+      <c r="C75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="14"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="15"/>
-      <c r="C65" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="F75" s="4"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="16"/>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="16"/>
+      <c r="C77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="16"/>
+      <c r="C78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="15"/>
-      <c r="C66" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="15"/>
-      <c r="C67" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="14"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B68" s="15"/>
-      <c r="C68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="15"/>
-      <c r="C69" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="15"/>
-      <c r="C70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="8"/>
+      <c r="G78" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B49:B57"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B39"/>
+  <mergeCells count="14">
+    <mergeCell ref="B66:B78"/>
+    <mergeCell ref="B26:B32"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B58:B70"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2439,46 +2589,46 @@
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="29" customWidth="1" outlineLevel="2"/>
     <col min="6" max="6" width="28.5" customWidth="1" outlineLevel="2"/>
-    <col min="7" max="7" width="7.59765625" style="5" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="7.625" style="5" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="18" t="s">
+    <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2497,8 +2647,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="16"/>
+    <row r="5" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
@@ -2515,8 +2665,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="16"/>
+    <row r="6" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
@@ -2531,8 +2681,8 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="16"/>
+    <row r="7" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
       <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
@@ -2547,8 +2697,8 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
+    <row r="8" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2563,8 +2713,8 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
+    <row r="9" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2579,8 +2729,8 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="17"/>
+    <row r="10" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2595,8 +2745,8 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2615,8 +2765,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
+    <row r="12" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2633,8 +2783,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
+    <row r="13" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
       <c r="C13" s="3" t="s">
         <v>77</v>
       </c>
@@ -2651,8 +2801,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
+    <row r="14" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
@@ -2667,8 +2817,8 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
+    <row r="15" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2683,8 +2833,8 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
+    <row r="16" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2699,8 +2849,8 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="16"/>
+    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2715,8 +2865,8 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="17"/>
+    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2731,8 +2881,8 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2751,8 +2901,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="16"/>
+    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
       <c r="C20" s="2" t="s">
         <v>80</v>
       </c>
@@ -2769,8 +2919,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="16"/>
+    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="19"/>
       <c r="C21" s="3" t="s">
         <v>81</v>
       </c>
@@ -2787,8 +2937,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="16"/>
+    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19"/>
       <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
@@ -2805,8 +2955,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="16"/>
+    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
       <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
@@ -2821,8 +2971,8 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="16"/>
+    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19"/>
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2837,8 +2987,8 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="16"/>
+    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2853,8 +3003,8 @@
       </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="17"/>
+    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
@@ -2869,8 +3019,8 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2889,8 +3039,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="16"/>
+    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19"/>
       <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3057,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="16"/>
+    <row r="29" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="19"/>
       <c r="C29" s="3" t="s">
         <v>80</v>
       </c>
@@ -2925,8 +3075,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="16"/>
+    <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="19"/>
       <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
@@ -2943,8 +3093,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="16"/>
+    <row r="31" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="19"/>
       <c r="C31" s="4" t="s">
         <v>47</v>
       </c>
@@ -2959,8 +3109,8 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="16"/>
+    <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19"/>
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
@@ -2975,8 +3125,8 @@
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="16"/>
+    <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
       <c r="C33" s="3" t="s">
         <v>26</v>
       </c>
@@ -2991,8 +3141,8 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="16"/>
+    <row r="34" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
       <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
@@ -3007,8 +3157,8 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="16"/>
+    <row r="35" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19"/>
       <c r="C35" s="3" t="s">
         <v>111</v>
       </c>
@@ -3021,8 +3171,8 @@
       <c r="F35" s="3"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="16"/>
+    <row r="36" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="19"/>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
@@ -3037,8 +3187,8 @@
       </c>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="16"/>
+    <row r="37" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="19"/>
       <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
@@ -3053,8 +3203,8 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="17"/>
+    <row r="38" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
@@ -3069,8 +3219,8 @@
       </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="18" t="s">
+    <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -3089,8 +3239,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="16"/>
+    <row r="40" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="19"/>
       <c r="C40" s="2" t="s">
         <v>105</v>
       </c>
@@ -3107,8 +3257,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="16"/>
+    <row r="41" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="19"/>
       <c r="C41" s="3" t="s">
         <v>81</v>
       </c>
@@ -3125,8 +3275,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="16"/>
+    <row r="42" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="19"/>
       <c r="C42" s="3" t="s">
         <v>28</v>
       </c>
@@ -3141,8 +3291,8 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="16"/>
+    <row r="43" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="19"/>
       <c r="C43" s="3" t="s">
         <v>54</v>
       </c>
@@ -3157,8 +3307,8 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="16"/>
+    <row r="44" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="19"/>
       <c r="C44" s="3" t="s">
         <v>29</v>
       </c>
@@ -3173,8 +3323,8 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="16"/>
+    <row r="45" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="19"/>
       <c r="C45" s="3" t="s">
         <v>30</v>
       </c>
@@ -3189,8 +3339,8 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="16"/>
+    <row r="46" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="19"/>
       <c r="C46" s="3" t="s">
         <v>31</v>
       </c>
@@ -3205,8 +3355,8 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="16"/>
+    <row r="47" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="19"/>
       <c r="C47" s="2" t="s">
         <v>21</v>
       </c>
@@ -3219,8 +3369,8 @@
       <c r="F47" s="3"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="16"/>
+    <row r="48" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="19"/>
       <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
@@ -3235,8 +3385,8 @@
       </c>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="16"/>
+    <row r="49" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="19"/>
       <c r="C49" s="2" t="s">
         <v>44</v>
       </c>
@@ -3251,8 +3401,8 @@
       </c>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="17"/>
+    <row r="50" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="18"/>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
@@ -3267,8 +3417,8 @@
       </c>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="18" t="s">
+    <row r="51" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3287,8 +3437,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="16"/>
+    <row r="52" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="19"/>
       <c r="C52" s="2" t="s">
         <v>21</v>
       </c>
@@ -3305,8 +3455,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="16"/>
+    <row r="53" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="19"/>
       <c r="C53" s="4" t="s">
         <v>23</v>
       </c>
@@ -3321,8 +3471,8 @@
       </c>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="16"/>
+    <row r="54" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="19"/>
       <c r="C54" s="4" t="s">
         <v>97</v>
       </c>
@@ -3337,8 +3487,8 @@
       </c>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="16"/>
+    <row r="55" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="19"/>
       <c r="C55" s="4" t="s">
         <v>47</v>
       </c>
@@ -3353,8 +3503,8 @@
       </c>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="16"/>
+    <row r="56" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="19"/>
       <c r="C56" s="3" t="s">
         <v>94</v>
       </c>
@@ -3369,8 +3519,8 @@
       </c>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="16"/>
+    <row r="57" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="19"/>
       <c r="C57" s="3" t="s">
         <v>93</v>
       </c>
@@ -3385,8 +3535,8 @@
       </c>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="16"/>
+    <row r="58" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="19"/>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
@@ -3401,8 +3551,8 @@
       </c>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="16"/>
+    <row r="59" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="19"/>
       <c r="C59" s="2" t="s">
         <v>44</v>
       </c>
@@ -3417,8 +3567,8 @@
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="17"/>
+    <row r="60" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="18"/>
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
@@ -3433,8 +3583,8 @@
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="18" t="s">
+    <row r="61" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3453,8 +3603,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="16"/>
+    <row r="62" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="19"/>
       <c r="C62" s="2" t="s">
         <v>101</v>
       </c>
@@ -3471,8 +3621,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="16"/>
+    <row r="63" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="19"/>
       <c r="C63" s="3" t="s">
         <v>21</v>
       </c>
@@ -3489,8 +3639,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="16"/>
+    <row r="64" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="19"/>
       <c r="C64" s="3" t="s">
         <v>28</v>
       </c>
@@ -3505,8 +3655,8 @@
       </c>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="16"/>
+    <row r="65" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="19"/>
       <c r="C65" s="3" t="s">
         <v>103</v>
       </c>
@@ -3519,8 +3669,8 @@
       <c r="F65" s="3"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="16"/>
+    <row r="66" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="19"/>
       <c r="C66" s="3" t="s">
         <v>110</v>
       </c>
@@ -3533,8 +3683,8 @@
       </c>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="16"/>
+    <row r="67" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="19"/>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
@@ -3549,8 +3699,8 @@
       </c>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="16"/>
+    <row r="68" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="19"/>
       <c r="C68" s="2" t="s">
         <v>44</v>
       </c>
@@ -3565,8 +3715,8 @@
       </c>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="17"/>
+    <row r="69" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="18"/>
       <c r="C69" s="2" t="s">
         <v>7</v>
       </c>
@@ -3581,8 +3731,8 @@
       </c>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="18" t="s">
+    <row r="70" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="17" t="s">
         <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3601,8 +3751,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="16"/>
+    <row r="71" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="19"/>
       <c r="C71" s="2" t="s">
         <v>103</v>
       </c>
@@ -3619,8 +3769,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="16"/>
+    <row r="72" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="19"/>
       <c r="C72" s="3" t="s">
         <v>22</v>
       </c>
@@ -3635,8 +3785,8 @@
       </c>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="16"/>
+    <row r="73" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="19"/>
       <c r="C73" s="3" t="s">
         <v>33</v>
       </c>
@@ -3651,8 +3801,8 @@
       </c>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="16"/>
+    <row r="74" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="19"/>
       <c r="C74" s="3" t="s">
         <v>71</v>
       </c>
@@ -3665,8 +3815,8 @@
       </c>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="16"/>
+    <row r="75" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="19"/>
       <c r="C75" s="3" t="s">
         <v>72</v>
       </c>
@@ -3681,8 +3831,8 @@
       </c>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="16"/>
+    <row r="76" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="19"/>
       <c r="C76" s="3" t="s">
         <v>34</v>
       </c>
@@ -3695,8 +3845,8 @@
       </c>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="16"/>
+    <row r="77" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="19"/>
       <c r="C77" s="3" t="s">
         <v>69</v>
       </c>
@@ -3709,8 +3859,8 @@
       </c>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="16"/>
+    <row r="78" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="19"/>
       <c r="C78" s="3" t="s">
         <v>30</v>
       </c>
@@ -3725,8 +3875,8 @@
       </c>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="16"/>
+    <row r="79" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="19"/>
       <c r="C79" s="3" t="s">
         <v>31</v>
       </c>
@@ -3741,8 +3891,8 @@
       </c>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="16"/>
+    <row r="80" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="19"/>
       <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
@@ -3757,8 +3907,8 @@
       </c>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="16"/>
+    <row r="81" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="19"/>
       <c r="C81" s="2" t="s">
         <v>44</v>
       </c>
@@ -3773,8 +3923,8 @@
       </c>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="17"/>
+    <row r="82" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="18"/>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
@@ -3789,8 +3939,8 @@
       </c>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="18" t="s">
+    <row r="83" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -3809,8 +3959,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="16"/>
+    <row r="84" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="19"/>
       <c r="C84" s="2" t="s">
         <v>96</v>
       </c>
@@ -3827,8 +3977,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="16"/>
+    <row r="85" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="19"/>
       <c r="C85" s="4" t="s">
         <v>106</v>
       </c>
@@ -3841,8 +3991,8 @@
       <c r="F85" s="3"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="16"/>
+    <row r="86" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="19"/>
       <c r="C86" s="4" t="s">
         <v>108</v>
       </c>
@@ -3854,8 +4004,8 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="16"/>
+    <row r="87" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="19"/>
       <c r="C87" s="4" t="s">
         <v>36</v>
       </c>
@@ -3870,8 +4020,8 @@
       </c>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="16"/>
+    <row r="88" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="19"/>
       <c r="C88" s="3" t="s">
         <v>30</v>
       </c>
@@ -3886,8 +4036,8 @@
       </c>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="16"/>
+    <row r="89" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="19"/>
       <c r="C89" s="3" t="s">
         <v>31</v>
       </c>
@@ -3902,8 +4052,8 @@
       </c>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="16"/>
+    <row r="90" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="19"/>
       <c r="C90" s="2" t="s">
         <v>6</v>
       </c>
@@ -3918,8 +4068,8 @@
       </c>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="16"/>
+    <row r="91" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="19"/>
       <c r="C91" s="2" t="s">
         <v>44</v>
       </c>
@@ -3934,8 +4084,8 @@
       </c>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="17"/>
+    <row r="92" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="18"/>
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
@@ -3950,8 +4100,8 @@
       </c>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="18" t="s">
+    <row r="93" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="17" t="s">
         <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3970,8 +4120,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="16"/>
+    <row r="94" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="19"/>
       <c r="C94" s="2" t="s">
         <v>113</v>
       </c>
@@ -3988,8 +4138,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="16"/>
+    <row r="95" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="19"/>
       <c r="C95" s="3" t="s">
         <v>81</v>
       </c>
@@ -4002,8 +4152,8 @@
       <c r="F95" s="3"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="16"/>
+    <row r="96" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="19"/>
       <c r="C96" s="3" t="s">
         <v>115</v>
       </c>
@@ -4016,8 +4166,8 @@
       <c r="F96" s="3"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="16"/>
+    <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="19"/>
       <c r="C97" s="3" t="s">
         <v>114</v>
       </c>
@@ -4030,8 +4180,8 @@
       <c r="F97" s="3"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="16"/>
+    <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="19"/>
       <c r="C98" s="4" t="s">
         <v>23</v>
       </c>
@@ -4048,8 +4198,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="16"/>
+    <row r="99" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="19"/>
       <c r="C99" s="4" t="s">
         <v>47</v>
       </c>
@@ -4064,8 +4214,8 @@
       </c>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="16"/>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="19"/>
       <c r="C100" s="3" t="s">
         <v>54</v>
       </c>
@@ -4080,8 +4230,8 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="16"/>
+    <row r="101" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="19"/>
       <c r="C101" s="3" t="s">
         <v>30</v>
       </c>
@@ -4096,8 +4246,8 @@
       </c>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="16"/>
+    <row r="102" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="19"/>
       <c r="C102" s="3" t="s">
         <v>31</v>
       </c>
@@ -4112,8 +4262,8 @@
       </c>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="16"/>
+    <row r="103" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="19"/>
       <c r="C103" s="2" t="s">
         <v>6</v>
       </c>
@@ -4128,8 +4278,8 @@
       </c>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="16"/>
+    <row r="104" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="19"/>
       <c r="C104" s="2" t="s">
         <v>44</v>
       </c>
@@ -4144,8 +4294,8 @@
       </c>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="17"/>
+    <row r="105" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="18"/>
       <c r="C105" s="2" t="s">
         <v>7</v>
       </c>
@@ -4162,6 +4312,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B61:B69"/>
     <mergeCell ref="B70:B82"/>
     <mergeCell ref="B83:B92"/>
@@ -4172,12 +4328,6 @@
     <mergeCell ref="B27:B38"/>
     <mergeCell ref="B39:B50"/>
     <mergeCell ref="B51:B60"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4193,16 +4343,16 @@
       <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" customWidth="1"/>
-    <col min="2" max="2" width="20.8984375" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>152</v>
       </c>
@@ -4219,8 +4369,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4234,8 +4384,8 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>142</v>
       </c>
@@ -4245,8 +4395,8 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4258,8 +4408,8 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>86</v>
       </c>
@@ -4271,8 +4421,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>161</v>
       </c>
@@ -4284,8 +4434,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4297,8 +4447,8 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>124</v>
       </c>
@@ -4308,8 +4458,8 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>127</v>
       </c>
@@ -4323,8 +4473,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>117</v>
       </c>
@@ -4338,8 +4488,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>154</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4353,8 +4503,8 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>143</v>
       </c>
@@ -4366,8 +4516,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>157</v>
       </c>
@@ -4399,14 +4549,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>119</v>
       </c>
@@ -4420,7 +4570,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -4434,7 +4584,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>131</v>
       </c>
@@ -4448,7 +4598,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>129</v>
       </c>
@@ -4462,7 +4612,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>133</v>
       </c>
@@ -4476,7 +4626,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>121</v>
       </c>
@@ -4490,7 +4640,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>123</v>
       </c>
@@ -4504,7 +4654,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>126</v>
       </c>
@@ -4518,7 +4668,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>116</v>
       </c>
@@ -4532,7 +4682,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>176</v>
       </c>
@@ -4546,7 +4696,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>166</v>
       </c>
@@ -4560,7 +4710,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>167</v>
       </c>
